--- a/data/report.xlsx
+++ b/data/report.xlsx
@@ -579,7 +579,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Report Generated: 2025-07-21 14:12:58</t>
+          <t>Report Generated: 2025-07-21 14:24:46</t>
         </is>
       </c>
     </row>
